--- a/MSOfficeHelper/temp.xlsx
+++ b/MSOfficeHelper/temp.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>test</t>
+    <t>Deepak</t>
+  </si>
+  <si>
+    <t>Arya</t>
   </si>
 </sst>
 </file>
@@ -31,31 +34,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <sz val="16.0"/>
-      <b val="true"/>
-      <color indexed="51"/>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="darkGray"/>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="48"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="48"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -63,14 +54,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true" applyFont="true">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -78,7 +87,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -91,14 +100,16 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="B1" t="s" s="1">
+      <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
     </row>
+    <row r="2" ht="169.6" customHeight="true">
+      <c r="B2" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:D1"/>
-  </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>